--- a/jyhn中英文翻译.xlsx
+++ b/jyhn中英文翻译.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="407">
   <si>
     <t>登录</t>
   </si>
@@ -472,7 +472,7 @@
     <t>['Please set the drug name','The expiry date of the drug must not be lower than the present','The dosage should not be zero','medicine is expired,please carefully','The name of the drug is too long','Please select expiry date']</t>
   </si>
   <si>
-    <t>提醒/选择设备/提醒</t>
+    <t>提醒/选择设备/提醒提示信息</t>
   </si>
   <si>
     <t>加载中...</t>
@@ -530,6 +530,716 @@
   </si>
   <si>
     <t>Data save failed</t>
+  </si>
+  <si>
+    <t>临时取药提示信息</t>
+  </si>
+  <si>
+    <t>临时取药中,请稍等...</t>
+  </si>
+  <si>
+    <t>manual dispensing in operation…</t>
+  </si>
+  <si>
+    <t>即将机器自动操作,暂时无法进行操作</t>
+  </si>
+  <si>
+    <t>machine in process</t>
+  </si>
+  <si>
+    <t>设备未返回,请返回</t>
+  </si>
+  <si>
+    <t>The device does not return to the main page, please click back</t>
+  </si>
+  <si>
+    <t>药杯药品未取出,请取出并放回</t>
+  </si>
+  <si>
+    <t>Previous dosage not taken yet, clear the cup and fix back</t>
+  </si>
+  <si>
+    <t>药杯在外,请放回</t>
+  </si>
+  <si>
+    <t>missing cup</t>
+  </si>
+  <si>
+    <t>取药剂量为0,无法取药</t>
+  </si>
+  <si>
+    <t>remaining 0, can't dispense</t>
+  </si>
+  <si>
+    <t>取药完成</t>
+  </si>
+  <si>
+    <t>dispensing completed</t>
+  </si>
+  <si>
+    <t>取药失败</t>
+  </si>
+  <si>
+    <t>dispansing failure</t>
+  </si>
+  <si>
+    <t>取药成功</t>
+  </si>
+  <si>
+    <t>dispensing finished</t>
+  </si>
+  <si>
+    <t>外出取药提示信息</t>
+  </si>
+  <si>
+    <t>外出时长不符合无法取药</t>
+  </si>
+  <si>
+    <t>AWAY period not valid, unable to dispense</t>
+  </si>
+  <si>
+    <t>请设置取药时间</t>
+  </si>
+  <si>
+    <t>Please set the time of taking medicine</t>
+  </si>
+  <si>
+    <t>请设置外出结束时间</t>
+  </si>
+  <si>
+    <t>Please set the out of office end time</t>
+  </si>
+  <si>
+    <t>外出模式设置成功</t>
+  </si>
+  <si>
+    <t>AWAY mode setup completed</t>
+  </si>
+  <si>
+    <t>外出模式设置失败</t>
+  </si>
+  <si>
+    <t>AWAY mode setup failure</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>请前往小程序进行提交</t>
+  </si>
+  <si>
+    <t>please run wechat applet to submit</t>
+  </si>
+  <si>
+    <t>仅用于取消外出</t>
+  </si>
+  <si>
+    <t>not for AWAY mode</t>
+  </si>
+  <si>
+    <t>['计划取药,完成服药提醒','药杯拿走,未放回提醒','计划取药,未服药提醒','外出期间,服药提醒']</t>
+  </si>
+  <si>
+    <t>['Plan to pick up medication and complete medication reminders','Medicine cup away, not put back reminder','Plan to take medicine, do not take reminder','Remind you to take medicine when you are out'],</t>
+  </si>
+  <si>
+    <t>['app推送','公众号推送']</t>
+  </si>
+  <si>
+    <t>['AppPusher','WeChat public push']</t>
+  </si>
+  <si>
+    <t>药盒信息</t>
+  </si>
+  <si>
+    <t>注意:*加药切勿混药、混批次,药盒清空后加药</t>
+  </si>
+  <si>
+    <t>Attention:*Do not mix drugs or batches when adding medicine. Add medicine after the medicine box is empty'</t>
+  </si>
+  <si>
+    <t>当前药仓','药品名称','药品到期日','剩余药品','每次服药剂量','服药天数','服药时间'</t>
+  </si>
+  <si>
+    <t>current loader','drug name','expiration','remaining','dosage/time','days of consumption','time'</t>
+  </si>
+  <si>
+    <t>药仓编号</t>
+  </si>
+  <si>
+    <t>Loader No.</t>
+  </si>
+  <si>
+    <t>药品编码</t>
+  </si>
+  <si>
+    <t>Loader Code</t>
+  </si>
+  <si>
+    <t>未设置</t>
+  </si>
+  <si>
+    <t>Pill not assigned</t>
+  </si>
+  <si>
+    <t>请输入内容</t>
+  </si>
+  <si>
+    <t>Please input dose</t>
+  </si>
+  <si>
+    <t>请输入剂量</t>
+  </si>
+  <si>
+    <t>Please enter days of medication</t>
+  </si>
+  <si>
+    <t>请输入服药天数</t>
+  </si>
+  <si>
+    <t>Fill out required information</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>提醒</t>
+  </si>
+  <si>
+    <t>语音提醒</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>屏幕提醒</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>音量设置</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>其他提醒</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>屏保</t>
+  </si>
+  <si>
+    <t>sceensaver</t>
+  </si>
+  <si>
+    <t>临时取药</t>
+  </si>
+  <si>
+    <t>药品名称</t>
+  </si>
+  <si>
+    <t>drug name</t>
+  </si>
+  <si>
+    <t>余量</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>取药数量</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>已过有效期,请选择</t>
+  </si>
+  <si>
+    <t>out of expiry date</t>
+  </si>
+  <si>
+    <t>药仓数量不足无法选中</t>
+  </si>
+  <si>
+    <t>Empty loader or lacking pills</t>
+  </si>
+  <si>
+    <t>外出取药</t>
+  </si>
+  <si>
+    <t>Remind</t>
+  </si>
+  <si>
+    <t>外出时段将不再配药。24小时内外出可选择立即配药,请留意配药份数,逐份携带!</t>
+  </si>
+  <si>
+    <t>Drugs will no longer be dispensed during AWAY hours. All the required dosages can be dispensed now if an AWAY period is not more than 24 hours.Please collect them one dosage after another.</t>
+  </si>
+  <si>
+    <t>主机时间</t>
+  </si>
+  <si>
+    <t>host time</t>
+  </si>
+  <si>
+    <t>返回时间</t>
+  </si>
+  <si>
+    <t>return time</t>
+  </si>
+  <si>
+    <t>配药份数</t>
+  </si>
+  <si>
+    <t>number of dosages</t>
+  </si>
+  <si>
+    <t>外出计划已保存</t>
+  </si>
+  <si>
+    <t>The outing plan has been saved</t>
+  </si>
+  <si>
+    <t>外出时长不在0h-24h之间,无法取药</t>
+  </si>
+  <si>
+    <t>AWAY period is longer than 24 hours, dispensing not supported</t>
+  </si>
+  <si>
+    <t>取药份数为0,请在设置中取药外出,重新调整外出时间</t>
+  </si>
+  <si>
+    <t>Short of pills, please refill</t>
+  </si>
+  <si>
+    <t>可以取药</t>
+  </si>
+  <si>
+    <t>ready to dispense</t>
+  </si>
+  <si>
+    <t>查看取药信息</t>
+  </si>
+  <si>
+    <t>view the dosage info.</t>
+  </si>
+  <si>
+    <t>dispensing completed;</t>
+  </si>
+  <si>
+    <t>外出模式设置中...</t>
+  </si>
+  <si>
+    <t>setting AWAY mode...</t>
+  </si>
+  <si>
+    <t>配置药品中...</t>
+  </si>
+  <si>
+    <t>dispensing...</t>
+  </si>
+  <si>
+    <t>报告信息</t>
+  </si>
+  <si>
+    <t>药盒余量</t>
+  </si>
+  <si>
+    <t>药品量</t>
+  </si>
+  <si>
+    <t>total pills</t>
+  </si>
+  <si>
+    <t>药盒总览</t>
+  </si>
+  <si>
+    <t>kit overview</t>
+  </si>
+  <si>
+    <t>['序号','药品','开始时间','已使用']</t>
+  </si>
+  <si>
+    <t>['s/n number','drug','start time','lasting']</t>
+  </si>
+  <si>
+    <t>服药率</t>
+  </si>
+  <si>
+    <t>medicine rate</t>
+  </si>
+  <si>
+    <t>服药时段</t>
+  </si>
+  <si>
+    <t>intervals</t>
+  </si>
+  <si>
+    <t>['时间','药仓','每日','多日','正常服药','异常服药','查看时段']</t>
+  </si>
+  <si>
+    <t>['time','W.H','everyday','many days','Nor Pill','Abnor Pill',"Check the time"]</t>
+  </si>
+  <si>
+    <t>切换药盒模式</t>
+  </si>
+  <si>
+    <t>switch loader mode</t>
+  </si>
+  <si>
+    <t>切换账号</t>
+  </si>
+  <si>
+    <t>swith user</t>
+  </si>
+  <si>
+    <t>changing user info...</t>
+  </si>
+  <si>
+    <t>['消息推送设置','系统日志','清除缓存','版本更新','意见反馈','关于','免责条款']</t>
+  </si>
+  <si>
+    <t>['Message push','log','clear buffer','software upgrade','feedback','about','disclaimer']</t>
+  </si>
+  <si>
+    <t>['','点击查看','0','0.0.01','让取药变得更美好','','']</t>
+  </si>
+  <si>
+    <t>['','click to view','0','0.0.01','Make it better','',''],</t>
+  </si>
+  <si>
+    <t>确认清楚缓存</t>
+  </si>
+  <si>
+    <t>confirm to clear buffer</t>
+  </si>
+  <si>
+    <t>新版本</t>
+  </si>
+  <si>
+    <t>new version</t>
+  </si>
+  <si>
+    <t>确认退出登录,切换账号</t>
+  </si>
+  <si>
+    <t>confirm logging out, swithing account</t>
+  </si>
+  <si>
+    <t>关于/系统日志</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>Model No.</t>
+  </si>
+  <si>
+    <t>设备序列号</t>
+  </si>
+  <si>
+    <t>serial number</t>
+  </si>
+  <si>
+    <t>软件版本</t>
+  </si>
+  <si>
+    <t>software version</t>
+  </si>
+  <si>
+    <t>日志分类</t>
+  </si>
+  <si>
+    <t>log type</t>
+  </si>
+  <si>
+    <t>['开机日志','药盒绑定/解绑日志','用户信息修改','药盒信息修改日志','模式更改日志','定时/临时/外出取药日志','吃药与药杯放回日志']</t>
+  </si>
+  <si>
+    <t>['Boot log','Bind/Unbound log','User info modification log','Medicine box info log','Pattern log','Take medicine log','Medication/cup log']</t>
+  </si>
+  <si>
+    <t>系统日志详情/药盒详情</t>
+  </si>
+  <si>
+    <t>请输入搜索日志</t>
+  </si>
+  <si>
+    <t>input to search log,Within 28 characters</t>
+  </si>
+  <si>
+    <t>暂无相关数据</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>无更多数据</t>
+  </si>
+  <si>
+    <t>no more data</t>
+  </si>
+  <si>
+    <t>取药详情</t>
+  </si>
+  <si>
+    <t>dispensing details</t>
+  </si>
+  <si>
+    <t>manual dispense</t>
+  </si>
+  <si>
+    <t>药仓</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>实取</t>
+  </si>
+  <si>
+    <t>actual drug taken</t>
+  </si>
+  <si>
+    <t>应取</t>
+  </si>
+  <si>
+    <t>planned drug taken</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>免责条款</t>
+  </si>
+  <si>
+    <t>欢迎使用简易慧能配药机器人,请阅读以下内容后做出选择：</t>
+  </si>
+  <si>
+    <t>Welcome to use the simple hueieng medicine dispensing robot, please read the following to make a choice:</t>
+  </si>
+  <si>
+    <t>放弃使用</t>
+  </si>
+  <si>
+    <t>give up using</t>
+  </si>
+  <si>
+    <t>确认使用</t>
+  </si>
+  <si>
+    <t>Confirm to use</t>
+  </si>
+  <si>
+    <t>本产品需要连接互联网使用；</t>
+  </si>
+  <si>
+    <t>WIFI, the Internet connection, is required;</t>
+  </si>
+  <si>
+    <t>药品适用于片剂、胶囊、丸药且不易粘连和变形的药种；</t>
+  </si>
+  <si>
+    <t>Tablets, capsules and pills which are without any sticky,deform, liquid or floppy in forms etc. are not  applicable;</t>
+  </si>
+  <si>
+    <t>药品大小为直径3-20毫米之间；</t>
+  </si>
+  <si>
+    <t>The operable dimension of the drugs should be within 3-20mm;</t>
+  </si>
+  <si>
+    <t>可工作温度在0-30摄氏度，湿度在20-70%，此指标并非药品指标；</t>
+  </si>
+  <si>
+    <t>Working temperature: 0-30 ℃, humidity : 20-70%;</t>
+  </si>
+  <si>
+    <t>本产品不具备核定药品实际过期或失效功能，请自行准确输入；</t>
+  </si>
+  <si>
+    <t>The product is not capable of monitoring the actual expiry dates of your drugs, please input it accurately;</t>
+  </si>
+  <si>
+    <t>在服用配好的药品前，请再次核对检查；</t>
+  </si>
+  <si>
+    <t>After the dispensing, please check before taking;</t>
+  </si>
+  <si>
+    <t>请按照产品说明书使用，对于非正常操作造成的任何损失，本公司不承担责任；</t>
+  </si>
+  <si>
+    <t>Follow the instructions, we won t be charged by any mis-operation\u0000</t>
+  </si>
+  <si>
+    <t>状态/按钮</t>
+  </si>
+  <si>
+    <t>["自动","外出",'重启...']</t>
+  </si>
+  <si>
+    <t>["auto","out",'restart...']</t>
+  </si>
+  <si>
+    <t>["正常","偏高","偏低"]</t>
+  </si>
+  <si>
+    <t>["normal","hight","low"]</t>
+  </si>
+  <si>
+    <t>确定解除绑定</t>
+  </si>
+  <si>
+    <t>Determine unbinding?</t>
+  </si>
+  <si>
+    <t>确认退出登录</t>
+  </si>
+  <si>
+    <t>Confirm logout?</t>
+  </si>
+  <si>
+    <t>确认保存</t>
+  </si>
+  <si>
+    <t>Confirm to save?</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>设备重启中...</t>
+  </si>
+  <si>
+    <t>Device restart...</t>
+  </si>
+  <si>
+    <t>请将内容放入到扫码框内</t>
+  </si>
+  <si>
+    <t>align to the scanner frame</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>立即配药</t>
+  </si>
+  <si>
+    <t>dispense</t>
+  </si>
+  <si>
+    <t>取药</t>
+  </si>
+  <si>
+    <t>Get pill</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>setup</t>
+  </si>
+  <si>
+    <t>["年","月","日","时","分","秒"]</t>
+  </si>
+  <si>
+    <t>["Year","Month","Day","H","M","s"]</t>
+  </si>
+  <si>
+    <t>错误提示</t>
+  </si>
+  <si>
+    <t>['请输入药品序列号','请输入13位药品序列号','请输入12位设备序列号','请输入设备序列号']</t>
+  </si>
+  <si>
+    <t>['Please enter the serial number','Please enter the 13-digit drug serial number','Please enter the 12-digit device serial number','Please enter the device serial number']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['URL编码失败','唯一标识不能为空','手机号码不能为空或手机号格式不正确','短信验证码不能为空','密码输入不能为空','短信验证码已过期','手机号已经注册']
+  </t>
+  </si>
+  <si>
+    <t>['短信验证码输入有误','账号或密码错误，请检查并重新输入','此手机号暂未注册，请确定手机号输入是否正确','药盒序列号输入不能为空',
+   '短信验证码发送失败','商品条形码输入有误','未找到该商品条形码的相关数据信息','该药品数据不完整','药盒序列号不存在,请重新输入',]</t>
+  </si>
+  <si>
+    <t>['token不能为空','商品条形码不能为空','药仓位置不能为空','此商品码不属于药品不可放入','json数据不能为空','药盒正在换吸头，不可进行此操作，请稍后重试','药盒正在加药，不可进行此操作，请稍后重试','药盒正在外出取药，不可进行此操作，请稍后重试',]</t>
+  </si>
+  <si>
+    <t>['药盒正在临时取药，不可进行此操作，请稍后重试','药盒正在定时取药，不可进行此操作，请稍后重试','药杯不在指定位置，不可进行取药','药杯在位但有药未取出，不可进行取药','该药盒与当前用户未进行绑定，请重新绑定']</t>
   </si>
 </sst>
 </file>
@@ -538,16 +1248,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,37 +1277,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +1328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +1336,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,69 +1397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,13 +1414,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,37 +1450,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,19 +1504,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,73 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,17 +1713,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,34 +1727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,16 +1752,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,157 +1801,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,8 +2006,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1654,10 +2366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212:B233"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493:B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1810,7 +2522,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3180,8 +3892,1818 @@
       <c r="B233" s="6"/>
       <c r="C233" s="2"/>
     </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="8"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="8"/>
+      <c r="B238" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="8"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="8"/>
+      <c r="B240" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="8"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="8"/>
+      <c r="B242" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="8"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="8"/>
+      <c r="B244" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="8"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="8"/>
+      <c r="B246" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="8"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="8"/>
+      <c r="B248" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="8"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="8"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="8"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="14"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="8"/>
+      <c r="B252" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="8"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="8"/>
+      <c r="B254" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="8"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="8"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="8"/>
+      <c r="B259" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="8"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="8"/>
+      <c r="B261" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="8"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="8"/>
+      <c r="B263" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="8"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="8"/>
+      <c r="B265" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="8"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="2"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="8"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="8"/>
+      <c r="B270" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="8"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="8"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="8"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="12"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="8"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="14"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="8"/>
+      <c r="B277" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="8"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="2"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="8"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="8"/>
+      <c r="B282" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C282" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="8"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="12"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="8"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="8"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="14"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="8"/>
+      <c r="B286" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="8"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="8"/>
+      <c r="B288" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="8"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="8"/>
+      <c r="B290" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="8"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="8"/>
+      <c r="B292" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="8"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="8"/>
+      <c r="B294" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="8"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="8"/>
+      <c r="B296" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="8"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="8"/>
+      <c r="B298" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="8"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="8"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="8"/>
+      <c r="B303" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="8"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="12"/>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="8"/>
+      <c r="B305" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="8"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="14"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="8"/>
+      <c r="B307" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="8"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="2"/>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="8"/>
+      <c r="B309" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="8"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="2"/>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="8"/>
+      <c r="B311" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="8"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="2"/>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="8"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="12"/>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="8"/>
+      <c r="B316" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="8"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="14"/>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="8"/>
+      <c r="B318" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="8"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="8"/>
+      <c r="B320" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="8"/>
+      <c r="B321" s="6"/>
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="8"/>
+      <c r="B322" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="8"/>
+      <c r="B323" s="6"/>
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="8"/>
+      <c r="B324" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="8"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="8"/>
+      <c r="B326" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="8"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="8"/>
+      <c r="B328" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="8"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="2"/>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="8"/>
+      <c r="B330" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="8"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="2"/>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="8"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="12"/>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="8"/>
+      <c r="B335" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="8"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="14"/>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="8"/>
+      <c r="B337" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="8"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="2"/>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="8"/>
+      <c r="B339" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="8"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="2"/>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="8"/>
+      <c r="B341" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="8"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="2"/>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="8"/>
+      <c r="B343" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="8"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="2"/>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="8"/>
+      <c r="B345" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="8"/>
+      <c r="B346" s="6"/>
+      <c r="C346" s="2"/>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="8"/>
+      <c r="B347" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="8"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="2"/>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="8"/>
+      <c r="B349" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="8"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="8"/>
+      <c r="B351" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="8"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="8"/>
+      <c r="B353" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="8"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="8"/>
+      <c r="B355" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="8"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="8"/>
+      <c r="B357" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="8"/>
+      <c r="B358" s="6"/>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="8"/>
+      <c r="B359" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="8"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="2"/>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="8"/>
+      <c r="B363" s="11"/>
+      <c r="C363" s="12"/>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="8"/>
+      <c r="B364" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="8"/>
+      <c r="B365" s="13"/>
+      <c r="C365" s="14"/>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="8"/>
+      <c r="B366" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="8"/>
+      <c r="B367" s="6"/>
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="8"/>
+      <c r="B368" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="8"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="8"/>
+      <c r="B370" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="8"/>
+      <c r="B371" s="6"/>
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="8"/>
+      <c r="B372" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="8"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="8"/>
+      <c r="B374" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="8"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="2"/>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="8"/>
+      <c r="B378" s="11"/>
+      <c r="C378" s="12"/>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="8"/>
+      <c r="B379" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="8"/>
+      <c r="B380" s="13"/>
+      <c r="C380" s="14"/>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="8"/>
+      <c r="B381" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="8"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="8"/>
+      <c r="B383" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="8"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="8"/>
+      <c r="B385" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="8"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="8"/>
+      <c r="B387" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="8"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="8"/>
+      <c r="B389" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="8"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="8"/>
+      <c r="B391" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="8"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="8"/>
+      <c r="B395" s="11"/>
+      <c r="C395" s="12"/>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="8"/>
+      <c r="B396" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="8"/>
+      <c r="B397" s="13"/>
+      <c r="C397" s="14"/>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="8"/>
+      <c r="B398" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="8"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="8"/>
+      <c r="B400" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="8"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="8"/>
+      <c r="B402" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="8"/>
+      <c r="B403" s="11"/>
+      <c r="C403" s="12"/>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="8"/>
+      <c r="B404" s="11"/>
+      <c r="C404" s="12"/>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="8"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="14"/>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="8"/>
+      <c r="B408" s="11"/>
+      <c r="C408" s="12"/>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="8"/>
+      <c r="B409" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="8"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="14"/>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="8"/>
+      <c r="B411" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="8"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="8"/>
+      <c r="B413" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="8"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="8"/>
+      <c r="B415" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="8"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="8"/>
+      <c r="B417" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="8"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="8"/>
+      <c r="B419" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="8"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="2"/>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="8"/>
+      <c r="B421" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="8"/>
+      <c r="B422" s="6"/>
+      <c r="C422" s="2"/>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="8"/>
+      <c r="B423" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="8"/>
+      <c r="B424" s="6"/>
+      <c r="C424" s="2"/>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="8"/>
+      <c r="B425" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="8"/>
+      <c r="B426" s="6"/>
+      <c r="C426" s="2"/>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="8"/>
+      <c r="B429" s="11"/>
+      <c r="C429" s="12"/>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="8"/>
+      <c r="B430" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="8"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="14"/>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="8"/>
+      <c r="B432" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="8"/>
+      <c r="B433" s="6"/>
+      <c r="C433" s="2"/>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="8"/>
+      <c r="B434" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="8"/>
+      <c r="B435" s="6"/>
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="8"/>
+      <c r="B436" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="8"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="2"/>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="8"/>
+      <c r="B438" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="8"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="8"/>
+      <c r="B440" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="8"/>
+      <c r="B441" s="6"/>
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="8"/>
+      <c r="B442" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="8"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="8"/>
+      <c r="B444" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="8"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="8"/>
+      <c r="B446" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="8"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="2"/>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="8"/>
+      <c r="B450" s="11"/>
+      <c r="C450" s="12"/>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="8"/>
+      <c r="B451" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="8"/>
+      <c r="B452" s="13"/>
+      <c r="C452" s="14"/>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="8"/>
+      <c r="B453" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="8"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="2"/>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="8"/>
+      <c r="B455" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="8"/>
+      <c r="B456" s="6"/>
+      <c r="C456" s="2"/>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="8"/>
+      <c r="B457" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="8"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="2"/>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="8"/>
+      <c r="B459" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="8"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="2"/>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="8"/>
+      <c r="B461" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="8"/>
+      <c r="B462" s="6"/>
+      <c r="C462" s="2"/>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="8"/>
+      <c r="B463" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="8"/>
+      <c r="B464" s="6"/>
+      <c r="C464" s="2"/>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="8"/>
+      <c r="B465" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="8"/>
+      <c r="B466" s="6"/>
+      <c r="C466" s="2"/>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="8"/>
+      <c r="B467" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="8"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="8"/>
+      <c r="B469" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="8"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="2"/>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="8"/>
+      <c r="B471" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="8"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="8"/>
+      <c r="B473" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="8"/>
+      <c r="B474" s="6"/>
+      <c r="C474" s="2"/>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="8"/>
+      <c r="B475" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="8"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="2"/>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="8"/>
+      <c r="B477" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="8"/>
+      <c r="B478" s="6"/>
+      <c r="C478" s="2"/>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="8"/>
+      <c r="B479" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="8"/>
+      <c r="B480" s="6"/>
+      <c r="C480" s="2"/>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="8"/>
+      <c r="B481" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="8"/>
+      <c r="B482" s="6"/>
+      <c r="C482" s="2"/>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="8"/>
+      <c r="B483" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="8"/>
+      <c r="B484" s="6"/>
+      <c r="C484" s="2"/>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="8"/>
+      <c r="B485" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="8"/>
+      <c r="B486" s="6"/>
+      <c r="C486" s="2"/>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="8"/>
+      <c r="B487" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="8"/>
+      <c r="B488" s="6"/>
+      <c r="C488" s="2"/>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="5"/>
+      <c r="B490" s="8"/>
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="5"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="5"/>
+      <c r="B492" s="8"/>
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="5"/>
+      <c r="B493" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C493" s="5"/>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="5"/>
+      <c r="B494" s="8"/>
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="5"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="5"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="5"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="5"/>
+    </row>
+    <row r="498" ht="54" spans="1:2">
+      <c r="A498" s="5"/>
+      <c r="B498" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="5"/>
+      <c r="B499" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C499" s="5"/>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="5"/>
+      <c r="B500" s="8"/>
+      <c r="C500" s="5"/>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="5"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="5"/>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="5"/>
+      <c r="B502" s="8"/>
+      <c r="C502" s="5"/>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="5"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="5"/>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="5"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="5"/>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="5"/>
+      <c r="B505" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C505" s="5"/>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="5"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="5"/>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="5"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="5"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="5"/>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="5"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="223">
+  <mergeCells count="478">
     <mergeCell ref="A1:A24"/>
     <mergeCell ref="A25:A48"/>
     <mergeCell ref="A50:A87"/>
@@ -3191,6 +5713,21 @@
     <mergeCell ref="A163:A184"/>
     <mergeCell ref="A188:A209"/>
     <mergeCell ref="A212:A233"/>
+    <mergeCell ref="A236:A255"/>
+    <mergeCell ref="A257:A266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="A273:A278"/>
+    <mergeCell ref="A280:A299"/>
+    <mergeCell ref="A301:A312"/>
+    <mergeCell ref="A314:A331"/>
+    <mergeCell ref="A333:A360"/>
+    <mergeCell ref="A362:A375"/>
+    <mergeCell ref="A377:A392"/>
+    <mergeCell ref="A394:A405"/>
+    <mergeCell ref="A407:A426"/>
+    <mergeCell ref="A428:A447"/>
+    <mergeCell ref="A449:A488"/>
+    <mergeCell ref="A489:A509"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -3298,6 +5835,126 @@
     <mergeCell ref="B228:B229"/>
     <mergeCell ref="B230:B231"/>
     <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B248:B251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="B320:B321"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B333:B334"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="B345:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B405"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="B425:B426"/>
+    <mergeCell ref="B428:B429"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="B444:B445"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="B449:B450"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="B455:B456"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="B459:B460"/>
+    <mergeCell ref="B461:B462"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="B471:B472"/>
+    <mergeCell ref="B473:B474"/>
+    <mergeCell ref="B475:B476"/>
+    <mergeCell ref="B477:B478"/>
+    <mergeCell ref="B479:B480"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="B483:B484"/>
+    <mergeCell ref="B485:B486"/>
+    <mergeCell ref="B487:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B497"/>
+    <mergeCell ref="B499:B504"/>
+    <mergeCell ref="B505:B509"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -3405,6 +6062,126 @@
     <mergeCell ref="C228:C229"/>
     <mergeCell ref="C230:C231"/>
     <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="C357:C358"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="C372:C373"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="C402:C405"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="C419:C420"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="C423:C424"/>
+    <mergeCell ref="C425:C426"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="C442:C443"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="C446:C447"/>
+    <mergeCell ref="C449:C450"/>
+    <mergeCell ref="C451:C452"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="C455:C456"/>
+    <mergeCell ref="C457:C458"/>
+    <mergeCell ref="C459:C460"/>
+    <mergeCell ref="C461:C462"/>
+    <mergeCell ref="C463:C464"/>
+    <mergeCell ref="C465:C466"/>
+    <mergeCell ref="C467:C468"/>
+    <mergeCell ref="C469:C470"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="C473:C474"/>
+    <mergeCell ref="C475:C476"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="C479:C480"/>
+    <mergeCell ref="C481:C482"/>
+    <mergeCell ref="C483:C484"/>
+    <mergeCell ref="C485:C486"/>
+    <mergeCell ref="C487:C488"/>
+    <mergeCell ref="C489:C492"/>
+    <mergeCell ref="C493:C497"/>
+    <mergeCell ref="C499:C504"/>
+    <mergeCell ref="C505:C509"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
